--- a/FMO/data.xlsx
+++ b/FMO/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/FMO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1243AF-B370-C745-9999-01D69267DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A48738-37D5-D249-87A9-A9DB019A7630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{62162650-271C-CA48-A747-C921BDC40E0D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="246">
   <si>
     <t xml:space="preserve">DH5α </t>
   </si>
@@ -978,6 +978,24 @@
   </si>
   <si>
     <t xml:space="preserve">C78I/Y207W/W319A </t>
+  </si>
+  <si>
+    <t>14 L/fed-batch</t>
+  </si>
+  <si>
+    <t>tryptophan: 400 g/L (fed)</t>
+  </si>
+  <si>
+    <t>indigo: 23 g/L</t>
+  </si>
+  <si>
+    <t>Fd911</t>
+  </si>
+  <si>
+    <t>indigo: ~10 g/L (expected ~37 g/L)</t>
+  </si>
+  <si>
+    <t>native tryptophanase</t>
   </si>
 </sst>
 </file>
@@ -1116,24 +1134,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1145,6 +1145,24 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1460,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468C4A23-D811-C640-901F-AA22E07F1126}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1495,7 @@
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13" style="3" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="34.6640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="27.33203125" style="3" customWidth="1"/>
@@ -1599,7 +1617,7 @@
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>132</v>
       </c>
       <c r="E4" s="4"/>
@@ -1751,7 +1769,7 @@
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>146</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1806,7 +1824,7 @@
       <c r="L10" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="7" t="s">
         <v>37</v>
       </c>
@@ -1834,7 +1852,7 @@
       <c r="L11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="7" t="s">
         <v>94</v>
       </c>
@@ -1843,7 +1861,7 @@
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>198</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1866,7 +1884,7 @@
       <c r="L12" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="7" t="s">
         <v>195</v>
       </c>
@@ -1892,8 +1910,8 @@
       <c r="J13" s="4"/>
       <c r="K13" s="7"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="13" t="s">
+      <c r="M13" s="13"/>
+      <c r="N13" s="18" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1920,8 +1938,8 @@
       <c r="L14" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
@@ -1945,7 +1963,7 @@
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="13"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
@@ -2354,28 +2372,28 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C30" s="4"/>
@@ -2406,8 +2424,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="4"/>
       <c r="D31" s="7" t="s">
         <v>105</v>
@@ -2426,8 +2444,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
@@ -2450,8 +2468,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="4"/>
       <c r="D33" s="7" t="s">
         <v>216</v>
@@ -2481,240 +2499,309 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="4"/>
+    <row r="34" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="I34" s="4">
+        <v>42</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="M34" s="4"/>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+    <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4">
-        <v>300</v>
-      </c>
-      <c r="I35" s="4">
-        <v>8</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="N35" s="18"/>
     </row>
     <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="4">
+        <v>42</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="K36" s="4" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="M36" s="4"/>
-      <c r="N36" s="7" t="s">
-        <v>124</v>
-      </c>
+      <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="D37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="4">
+        <v>300</v>
+      </c>
+      <c r="I37" s="4">
+        <v>8</v>
+      </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M37" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="M37" s="4">
+        <v>1.82</v>
+      </c>
       <c r="N37" s="7" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>71</v>
-      </c>
+      <c r="A38" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="18"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4">
-        <v>24</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M38" s="4"/>
-      <c r="N38" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="N38" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4">
-        <v>24</v>
-      </c>
+      <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="4" t="s">
-        <v>77</v>
+        <v>107</v>
+      </c>
+      <c r="M39" s="4"/>
+      <c r="N39" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>61</v>
+      <c r="A40" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="D40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4">
-        <v>2.137</v>
-      </c>
-      <c r="H40" s="4">
-        <v>5.4290000000000003</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
+        <v>24</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="M40" s="4"/>
-      <c r="N40" s="7" t="s">
-        <v>112</v>
+      <c r="N40" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="4"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="E41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F41" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="4">
+        <v>24</v>
+      </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M41" s="14"/>
+      <c r="N41" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4">
+        <v>2.137</v>
+      </c>
+      <c r="H42" s="4">
+        <v>5.4290000000000003</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="7" t="s">
+      <c r="M43" s="4"/>
+      <c r="N43" s="7" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="N34:N36"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="B2:B24"/>
     <mergeCell ref="N20:N21"/>
@@ -2722,11 +2809,6 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="N13:N15"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A29:N29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2776,7 +2858,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2799,7 +2881,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
         <v>78</v>
@@ -2818,7 +2900,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
         <v>157</v>
@@ -2832,18 +2914,18 @@
       <c r="F4" s="4">
         <v>400</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="18" t="s">
         <v>74</v>
       </c>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>232</v>
       </c>
       <c r="E5" s="4">
@@ -2852,141 +2934,141 @@
       <c r="F5" s="4">
         <v>800</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="18"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="4">
         <v>1.04</v>
       </c>
       <c r="F6" s="4">
         <v>700</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="18"/>
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="4">
         <v>0.7</v>
       </c>
       <c r="F7" s="4">
         <v>800</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="18"/>
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="4">
         <v>0.79</v>
       </c>
       <c r="F8" s="4">
         <v>400</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="18"/>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="4">
         <v>0.42</v>
       </c>
       <c r="F9" s="4">
         <v>900</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="18"/>
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="4">
         <v>0.64</v>
       </c>
       <c r="F10" s="4">
         <v>400</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="18"/>
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="4">
         <v>0.31</v>
       </c>
       <c r="F11" s="4">
         <v>100</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="18"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="15">
         <v>0.8</v>
       </c>
       <c r="F12" s="4">
         <v>800</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="18"/>
       <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="21">
+      <c r="D13" s="18"/>
+      <c r="E13" s="15">
         <v>0.93</v>
       </c>
       <c r="F13" s="4">
         <v>800</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="18"/>
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>157</v>
@@ -3004,7 +3086,7 @@
       <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="17"/>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -3046,15 +3128,15 @@
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">

--- a/FMO/data.xlsx
+++ b/FMO/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/FMO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A48738-37D5-D249-87A9-A9DB019A7630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DECB43E-FC09-F247-8C87-B09E723ABCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{62162650-271C-CA48-A747-C921BDC40E0D}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{62162650-271C-CA48-A747-C921BDC40E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="258">
   <si>
     <t xml:space="preserve">DH5α </t>
   </si>
@@ -124,9 +124,6 @@
     <t xml:space="preserve">WTS326 </t>
   </si>
   <si>
-    <t xml:space="preserve">pK-T326 S </t>
-  </si>
-  <si>
     <t xml:space="preserve">indigo: 1040, indirubin: 112 </t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t xml:space="preserve">90 ± 14 </t>
   </si>
   <si>
-    <t>pET-28aTM</t>
-  </si>
-  <si>
     <t>BL21(DE3)</t>
   </si>
   <si>
@@ -313,9 +307,6 @@
     <t>IND5</t>
   </si>
   <si>
-    <t>pTrc-TF1 and pTac-GEL</t>
-  </si>
-  <si>
     <t>indirubin: 56, indigo: 640</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
   </si>
   <si>
     <t>naphthalene dioxygenases (NDO)</t>
-  </si>
-  <si>
-    <t>p911</t>
   </si>
   <si>
     <t>FM5</t>
@@ -836,8 +824,154 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Addition of a lac promoter and operator gave activity approaching </t>
+    <t>Regulate the permeability of the cell membrane (Changes in the cell membrane phospholipid composition), TnaA from Escherichia coli K12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis of the enzymatic properties of mFMO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>indirubin: 860.7 (18 mg (L*h)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rioz-Martinez et al., 2011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 mM indole</t>
+  </si>
+  <si>
+    <t>First clone cFMO, maltose-binding protein (MBP) to purify the enzyme</t>
+  </si>
+  <si>
+    <t>Techonlogy improvement (fold)</t>
+  </si>
+  <si>
+    <t>7.7°C increase</t>
+  </si>
+  <si>
+    <t>WT, PTDH-NiFMO</t>
+  </si>
+  <si>
+    <t>C78I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C78V </t>
+  </si>
+  <si>
+    <t>MISO (multichange isothermal mutagenesis) mutants</t>
+  </si>
+  <si>
+    <t>directed evolution, site-directed mutants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C78L </t>
+  </si>
+  <si>
+    <t>C78A</t>
+  </si>
+  <si>
+    <t>W319A</t>
+  </si>
+  <si>
+    <t>W319F</t>
+  </si>
+  <si>
+    <t>Y207W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y207W/W319A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C78I/Y207W/W319A </t>
+  </si>
+  <si>
+    <t>14 L/fed-batch</t>
+  </si>
+  <si>
+    <t>tryptophan: 400 g/L (fed)</t>
+  </si>
+  <si>
+    <t>indigo: 23 g/L</t>
+  </si>
+  <si>
+    <t>Fd911</t>
+  </si>
+  <si>
+    <t>indigo: ~10 g/L (expected ~37 g/L)</t>
+  </si>
+  <si>
+    <t>native tryptophanase</t>
+  </si>
+  <si>
+    <t>amplification of DAHP synthase and transketolase activities</t>
+  </si>
+  <si>
+    <t>indigo: ~16 g/L (&gt;18 g/L in 72 h)</t>
+  </si>
+  <si>
+    <t>pET28a TM</t>
+  </si>
+  <si>
+    <t>pBlue 1.7 (optimized from 2.0)</t>
+  </si>
+  <si>
+    <t>Promoter</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indican: 2900 / indigo: 1400 (two indoxyl molecules are required to make one indigo molecule) </t>
+  </si>
+  <si>
+    <t>tac</t>
+  </si>
+  <si>
+    <t>pTrc-TF1</t>
+  </si>
+  <si>
+    <t>pCRE3</t>
+  </si>
+  <si>
+    <t>AraC</t>
+  </si>
+  <si>
+    <t>pMAL-c2x</t>
+  </si>
+  <si>
+    <t>pAC1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Addition of a strong promoter and operator gave activity approaching </t>
     </r>
     <r>
       <rPr>
@@ -862,16 +996,69 @@
     </r>
   </si>
   <si>
-    <t>Regulate the permeability of the cell membrane (Changes in the cell membrane phospholipid composition), TnaA from Escherichia coli K12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>analysis of the enzymatic properties of mFMO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <t>λP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>λP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (trpB and aroG: lac)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>λP</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (others: tac)</t>
+    </r>
+  </si>
+  <si>
+    <t>promoter region: −315 to −244</t>
   </si>
   <si>
     <r>
@@ -896,113 +1083,13 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>indirubin: 860.7 (18 mg (L*h)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rioz-Martinez et al., 2011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">indican:2900 / indigo: 1400 (two indoxyl molecules are required to make one indigo molecule) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 mM indole</t>
-  </si>
-  <si>
-    <t>First clone cFMO, maltose-binding protein (MBP) to purify the enzyme</t>
-  </si>
-  <si>
-    <t>Techonlogy improvement (fold)</t>
-  </si>
-  <si>
-    <t>7.7°C increase</t>
-  </si>
-  <si>
-    <t>WT, PTDH-NiFMO</t>
-  </si>
-  <si>
-    <t>C78I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C78V </t>
-  </si>
-  <si>
-    <t>MISO (multichange isothermal mutagenesis) mutants</t>
-  </si>
-  <si>
-    <t>directed evolution, site-directed mutants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C78L </t>
-  </si>
-  <si>
-    <t>C78A</t>
-  </si>
-  <si>
-    <t>W319A</t>
-  </si>
-  <si>
-    <t>W319F</t>
-  </si>
-  <si>
-    <t>Y207W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y207W/W319A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C78I/Y207W/W319A </t>
-  </si>
-  <si>
-    <t>14 L/fed-batch</t>
-  </si>
-  <si>
-    <t>tryptophan: 400 g/L (fed)</t>
-  </si>
-  <si>
-    <t>indigo: 23 g/L</t>
-  </si>
-  <si>
-    <t>Fd911</t>
-  </si>
-  <si>
-    <t>indigo: ~10 g/L (expected ~37 g/L)</t>
-  </si>
-  <si>
-    <t>native tryptophanase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1072,6 +1159,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1099,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1163,6 +1262,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468C4A23-D811-C640-901F-AA22E07F1126}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="B1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1492,18 +1594,19 @@
     <col min="4" max="4" width="49.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="27.1640625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="34.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="27.1640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="37" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>16</v>
@@ -1523,33 +1626,36 @@
         <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>209</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>14</v>
@@ -1566,89 +1672,94 @@
       <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
         <v>12</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N3" s="4"/>
+      <c r="O3" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="4"/>
       <c r="D4" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>242</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>256</v>
+      </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>24</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="M4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O4" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>0</v>
@@ -1656,31 +1767,31 @@
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>20</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="M5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" s="4">
         <v>1.39</v>
       </c>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="4"/>
       <c r="D6" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>0</v>
@@ -1688,31 +1799,31 @@
       <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>1.38</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="O6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="4"/>
       <c r="D7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>0</v>
@@ -1720,57 +1831,59 @@
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4">
         <v>110</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>134</v>
+      <c r="K7" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="M8" s="7"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4"/>
       <c r="D9" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>0</v>
@@ -1778,458 +1891,488 @@
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>48</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="M9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4"/>
       <c r="D10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4">
+        <v>24</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>24</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
       <c r="D11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>247</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N11" s="13"/>
+      <c r="O11" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="4"/>
       <c r="D12" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>6</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="7" t="s">
+      <c r="K12" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="N12" s="13"/>
+      <c r="O12" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="4">
+      <c r="G13" s="7"/>
+      <c r="H13" s="4">
         <v>0.85</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>400</v>
       </c>
-      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="K13" s="4"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>24</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="K14" s="4"/>
+      <c r="L14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="4"/>
       <c r="D15" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="K15" s="4"/>
+      <c r="L15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>84</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
-        <v>84</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="N16" s="4"/>
+      <c r="O16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="M17" s="7"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="4"/>
       <c r="D18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
         <v>12</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="K18" s="4"/>
       <c r="L18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="4"/>
       <c r="D19" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
         <v>48</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="4"/>
+      <c r="L19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>167</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="M20" s="7"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="4">
+        <v>48</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="4">
-        <v>48</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
         <v>24</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>54</v>
+      <c r="K22" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="M22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
       <c r="C23" s="4"/>
       <c r="D23" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="7" t="s">
-        <v>182</v>
-      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N23" s="4"/>
+      <c r="O23" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="4"/>
       <c r="D24" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="N24" s="4"/>
+      <c r="O24" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>6</v>
       </c>
@@ -2237,67 +2380,73 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
+      <c r="F25" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
         <v>48</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="4"/>
+      <c r="L25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="7" t="s">
+      <c r="M25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="4">
-        <v>1.52</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
@@ -2305,75 +2454,77 @@
         <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
-        <v>227</v>
-      </c>
+      <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
+        <v>24</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4">
-        <v>24</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -2388,47 +2539,49 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
-    </row>
-    <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="18"/>
       <c r="C31" s="4"/>
       <c r="D31" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2439,192 +2592,213 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N31" s="4"/>
+      <c r="O31" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="18"/>
       <c r="C32" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="G32" s="7"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="N32" s="4"/>
+      <c r="O32" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="18"/>
       <c r="C33" s="4"/>
       <c r="D33" s="7" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K33" s="7" t="s">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="N33" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="O33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M33" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="18"/>
       <c r="C34" s="17"/>
       <c r="D34" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="4">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4">
         <v>42</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="K34" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="18"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="E35" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4" t="s">
+      <c r="J35" s="4">
+        <v>60</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>1.6</v>
       </c>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" ht="36" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="18"/>
       <c r="C36" s="17"/>
       <c r="D36" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>255</v>
+      </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="4">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
         <v>42</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="K36" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
         <v>300</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>8</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M37" s="4">
+        <v>115</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N37" s="4">
         <v>1.82</v>
       </c>
-      <c r="N37" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="O37" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2632,165 +2806,173 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4">
         <v>24</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="K40" s="4" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="18"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>24</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N41" s="14"/>
+      <c r="O41" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="4">
+      <c r="G42" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="4">
         <v>2.137</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>5.4290000000000003</v>
       </c>
-      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N42" s="4"/>
+      <c r="O42" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="7" t="s">
-        <v>62</v>
+        <v>124</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2799,16 +2981,16 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B30:B38"/>
-    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A29:O29"/>
     <mergeCell ref="C34:C36"/>
-    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="O34:O36"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="B2:B24"/>
-    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2820,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7884E2C-A1F5-B94D-BAB6-1903AE0A04C5}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2845,13 +3027,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
@@ -2859,54 +3041,54 @@
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4">
         <v>0.85</v>
@@ -2915,7 +3097,7 @@
         <v>400</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4" s="11"/>
     </row>
@@ -2923,10 +3105,10 @@
       <c r="A5" s="19"/>
       <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E5" s="4">
         <v>1.28</v>
@@ -2941,7 +3123,7 @@
       <c r="A6" s="19"/>
       <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="4">
@@ -2957,7 +3139,7 @@
       <c r="A7" s="19"/>
       <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="4">
@@ -2973,7 +3155,7 @@
       <c r="A8" s="19"/>
       <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="4">
@@ -2989,7 +3171,7 @@
       <c r="A9" s="19"/>
       <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="4">
@@ -3005,7 +3187,7 @@
       <c r="A10" s="19"/>
       <c r="B10" s="17"/>
       <c r="C10" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="4">
@@ -3021,7 +3203,7 @@
       <c r="A11" s="19"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="4">
@@ -3037,10 +3219,10 @@
       <c r="A12" s="19"/>
       <c r="B12" s="17"/>
       <c r="C12" s="15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E12" s="15">
         <v>0.8</v>
@@ -3055,7 +3237,7 @@
       <c r="A13" s="19"/>
       <c r="B13" s="17"/>
       <c r="C13" s="15" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="15">
@@ -3071,17 +3253,17 @@
       <c r="A14" s="19"/>
       <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M14" s="11"/>
     </row>
@@ -3092,13 +3274,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G15" s="17"/>
       <c r="M15" s="11"/>
@@ -3111,25 +3293,25 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3141,33 +3323,33 @@
     </row>
     <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
         <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
@@ -3177,7 +3359,7 @@
         <v>5.4290000000000003</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M19" s="11"/>
     </row>
@@ -3190,7 +3372,7 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">

--- a/FMO/data.xlsx
+++ b/FMO/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/GeneticsNotes/FMO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DECB43E-FC09-F247-8C87-B09E723ABCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33317010-4306-E744-9535-BCFF8AC3811E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{62162650-271C-CA48-A747-C921BDC40E0D}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{62162650-271C-CA48-A747-C921BDC40E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="260">
   <si>
     <t xml:space="preserve">DH5α </t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">pBAD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">indigo: 1700 </t>
   </si>
   <si>
     <t xml:space="preserve">Fabara and Fraaije, 2020 </t>
@@ -1083,6 +1080,15 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>N291T</t>
+  </si>
+  <si>
+    <t>indirubin: 60.1 ± 2.9 (wild type: 11.9 ± 1.5)</t>
+  </si>
+  <si>
+    <t>indigo: 1700 (PTDH-mFMO was 670)</t>
   </si>
 </sst>
 </file>
@@ -1172,18 +1178,12 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1198,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,17 +1215,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1233,38 +1227,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468C4A23-D811-C640-901F-AA22E07F1126}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1607,147 +1634,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="37" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="G1" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="M1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
+      <c r="G2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18">
         <v>12</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="4" t="s">
+      <c r="D3" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="7" t="s">
-        <v>58</v>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18">
         <v>24</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="18">
         <v>4.1399999999999997</v>
       </c>
       <c r="O4" s="17" t="s">
@@ -1757,31 +1784,32 @@
     <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
+      <c r="G5" s="21"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
         <v>20</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="18">
         <v>1.39</v>
       </c>
       <c r="O5" s="17"/>
@@ -1789,457 +1817,466 @@
     <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="18">
         <v>1.38</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
+      <c r="G7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18">
         <v>110</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="K7" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="C8" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="7" t="s">
-        <v>216</v>
+      <c r="I8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
+        <v>48</v>
+      </c>
+      <c r="K9" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <v>48</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
-        <v>86</v>
+      <c r="M9" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18">
+        <v>24</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <v>24</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="7" t="s">
+      <c r="N10" s="23"/>
+      <c r="O10" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="M11" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="23"/>
+      <c r="O11" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18">
+        <v>6</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <v>6</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="7" t="s">
-        <v>191</v>
+      <c r="N12" s="23"/>
+      <c r="O12" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="4">
+      <c r="C13" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18">
         <v>0.85</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="18">
         <v>400</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="18" t="s">
-        <v>73</v>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18">
+        <v>24</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="M14" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>24</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="18"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="G16" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18">
         <v>84</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="K16" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="N16" s="18">
+        <v>2.54</v>
+      </c>
+      <c r="O16" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
         <v>12</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="K18" s="18"/>
+      <c r="L18" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <v>48</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="N19" s="18"/>
+      <c r="O19" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="10" t="s">
+      <c r="C20" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="4"/>
+      <c r="M20" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="N20" s="18">
+        <v>5.05</v>
+      </c>
       <c r="O20" s="17" t="s">
         <v>34</v>
       </c>
@@ -2247,129 +2284,129 @@
     <row r="21" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="4" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="J21" s="18">
         <v>48</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="N21" s="4"/>
+      <c r="M21" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="N21" s="18"/>
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="F22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18">
         <v>24</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="K22" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="7" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="M23" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="7" t="s">
-        <v>175</v>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="7" t="s">
-        <v>176</v>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -2379,604 +2416,611 @@
       <c r="B25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18">
+        <v>48</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4">
-        <v>48</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="7" t="s">
+      <c r="N25" s="18"/>
+      <c r="O25" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="7" t="s">
+      <c r="G26" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="18">
         <v>1.52</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O27" s="4" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18">
+        <v>24</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="N28" s="18"/>
+      <c r="O28" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+    </row>
+    <row r="30" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" s="18"/>
+      <c r="O30" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18">
+        <v>42</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="N34" s="18"/>
+      <c r="O34" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18">
+        <v>60</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="N35" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="O35" s="24"/>
+    </row>
+    <row r="36" spans="1:15" ht="36" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18">
+        <v>42</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="N36" s="18"/>
+      <c r="O36" s="24"/>
+    </row>
+    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18">
+        <v>300</v>
+      </c>
+      <c r="J37" s="18">
+        <v>8</v>
+      </c>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="18">
+        <v>1.82</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18">
+        <v>24</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18">
+        <v>24</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4">
-        <v>24</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="14">
-        <v>5.4</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4">
-        <v>42</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4">
+      <c r="F42" s="18"/>
+      <c r="G42" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="18">
+        <v>2.137</v>
+      </c>
+      <c r="I42" s="18">
+        <v>5.4290000000000003</v>
+      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="N43" s="18"/>
+      <c r="O43" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N35" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="1:15" ht="36" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4">
-        <v>42</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="18"/>
-    </row>
-    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4">
-        <v>300</v>
-      </c>
-      <c r="J37" s="4">
-        <v>8</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N37" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4">
-        <v>24</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4">
-        <v>24</v>
-      </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N41" s="14"/>
-      <c r="O41" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H42" s="4">
-        <v>2.137</v>
-      </c>
-      <c r="I42" s="4">
-        <v>5.4290000000000003</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
@@ -2984,13 +3028,6 @@
     <mergeCell ref="A29:O29"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="O34:O36"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="B2:B24"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3002,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7884E2C-A1F5-B94D-BAB6-1903AE0A04C5}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+    <sheetView zoomScale="108" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -3027,68 +3064,68 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>58</v>
+      <c r="G2" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>216</v>
+        <v>138</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="E4" s="4">
         <v>0.85</v>
@@ -3096,19 +3133,19 @@
       <c r="F4" s="4">
         <v>400</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="11"/>
+      <c r="G4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="E5" s="4">
         <v>1.28</v>
@@ -3116,240 +3153,240 @@
       <c r="F5" s="4">
         <v>800</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="M5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>222</v>
+      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="4">
         <v>1.04</v>
       </c>
       <c r="F6" s="4">
         <v>700</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="M6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="4">
         <v>0.7</v>
       </c>
       <c r="F7" s="4">
         <v>800</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="M7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="4">
         <v>0.79</v>
       </c>
       <c r="F8" s="4">
         <v>400</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="M8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="18"/>
+        <v>227</v>
+      </c>
+      <c r="D9" s="12"/>
       <c r="E9" s="4">
         <v>0.42</v>
       </c>
       <c r="F9" s="4">
         <v>900</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="M9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="4">
         <v>0.64</v>
       </c>
       <c r="F10" s="4">
         <v>400</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="M10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="18"/>
+        <v>229</v>
+      </c>
+      <c r="D11" s="12"/>
       <c r="E11" s="4">
         <v>0.31</v>
       </c>
       <c r="F11" s="4">
         <v>100</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="M11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="10">
         <v>0.8</v>
       </c>
       <c r="F12" s="4">
         <v>800</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="M12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10">
         <v>0.93</v>
       </c>
       <c r="F13" s="4">
         <v>800</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="M13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>50</v>
+      <c r="D15" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="M15" s="11"/>
+      <c r="G15" s="14"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="M17" s="11"/>
+      <c r="A17" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="7"/>
+      <c r="A18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
         <v>300</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" s="11"/>
+      <c r="G18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>60</v>
+      <c r="A19" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
@@ -3358,52 +3395,52 @@
       <c r="F19" s="4">
         <v>5.4290000000000003</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="11"/>
+      <c r="G19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M20" s="11"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M21" s="11"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M22" s="11"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M23" s="11"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M24" s="11"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M25" s="11"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M26" s="11"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M27" s="11"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M28" s="11"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M29" s="11"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M30" s="11"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M31" s="11"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M32" s="11"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M33" s="11"/>
+      <c r="M33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
